--- a/data/inequality_data/Inequality_Data.xlsx
+++ b/data/inequality_data/Inequality_Data.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hectorbahamonde/research/Inequality_Populism_Finland/data/inequality_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E905FB53-4351-744A-9EEB-36EA15781A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEB51FD-D7AE-5A41-A9A8-4AB07EF4A796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="11040" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001_127l_2021" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1445,13 +1455,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
